--- a/biology/Botanique/Cotinus/Cotinus.xlsx
+++ b/biology/Botanique/Cotinus/Cotinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cotinus est un genre de plantes à fleurs de la famille des Anacardiaceae comprenant huit espèces originaires des régions tempérées de l'hémisphère nord. Ce genre est proche du Sumac (Rhus). Les plus connus sont :
 Cotinus coggygria originaire d'Eurasie, dont la variété aux feuilles rouges est utilisée comme ornementation dans les espaces verts.
@@ -514,14 +526,16 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Cotinus ou « arbre à perruques ».
 			Inflorescence du cotinus.
 			Inflorescence du cotinus.
 			Feuillage de Cotinus coggygria.
-Ce sont des arbustes polygames, au bois jaune et aux exsudats résineux à l'odeur piquante. Leurs feuilles sont alternes, portées par de minces pétioles, simples, entières à légèrement dentelées. L'inflorescence est en cyme ou en panicule, terminale. Le pédicelle est fin, quatre à six fois plus long que la fleur, s'allongeant encore et devenant villosité après l'anthèse chez les fleurs stériles. Le calice se divise en cinq parties, à lobes ovales-lancéolés, obtus, persistants. Les fleurs ont cinq pétales, qui sont deux fois plus longs que le calice. Les cinq étamines sont plus courtes que les pétales ; les anthères sont ovales, plus courtes que les filaments. L'ovaire est obliquement comprimé, à un seul ovule ; il y a trois styles. Les fruits sont de petites  drupes, rouge foncé à brun, réniformes, comprimées, glabres ou pubescentes. La graine est réniforme, exalbuminée ; le tégument est mince ; le cotylédon complané[2].
+Ce sont des arbustes polygames, au bois jaune et aux exsudats résineux à l'odeur piquante. Leurs feuilles sont alternes, portées par de minces pétioles, simples, entières à légèrement dentelées. L'inflorescence est en cyme ou en panicule, terminale. Le pédicelle est fin, quatre à six fois plus long que la fleur, s'allongeant encore et devenant villosité après l'anthèse chez les fleurs stériles. Le calice se divise en cinq parties, à lobes ovales-lancéolés, obtus, persistants. Les fleurs ont cinq pétales, qui sont deux fois plus longs que le calice. Les cinq étamines sont plus courtes que les pétales ; les anthères sont ovales, plus courtes que les filaments. L'ovaire est obliquement comprimé, à un seul ovule ; il y a trois styles. Les fruits sont de petites  drupes, rouge foncé à brun, réniformes, comprimées, glabres ou pubescentes. La graine est réniforme, exalbuminée ; le tégument est mince ; le cotylédon complané.
 </t>
         </is>
       </c>
@@ -550,9 +564,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon la World Flora Online (WFO)       (16 avril 2021)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon la World Flora Online (WFO)       (16 avril 2021) :
 Cotinus americana Nutt.
 Cotinus carranzae Rzed. &amp; Calderón
 Cotinus chiangii (D.A.Young) Rzed. &amp; Calderón
